--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F9D65-9CE9-426D-ACCE-E4E6C2A09310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636E268-F78A-46CE-8CF8-F79C1EF65AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="2580" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17440" yWindow="1480" windowWidth="19990" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>with</t>
   </si>
@@ -170,12 +170,18 @@
   <si>
     <t>Colorado</t>
   </si>
+  <si>
+    <t>TTMI, Dublin</t>
+  </si>
+  <si>
+    <t>Trinity Translational Medicine Institute - Conference 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +200,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B2A6"/>
+      <name val="Open Sans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,10 +229,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,37 +577,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>2022</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>2021</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
+      <c r="A6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -601,40 +616,40 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2019</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>2015</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -643,12 +658,12 @@
         <v>2015</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -657,12 +672,12 @@
         <v>2015</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -671,7 +686,7 @@
         <v>2015</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -682,24 +697,24 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -710,10 +725,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -724,52 +739,52 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>2016</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18">
-        <v>2014</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
+        <v>2015</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -780,27 +795,42 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
+      <c r="A20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20">
+        <v>2011</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
         <v>2012</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636E268-F78A-46CE-8CF8-F79C1EF65AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1563D52E-6427-467F-9785-43588F1B3D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17440" yWindow="1480" windowWidth="19990" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="3825" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>with</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Trinity Translational Medicine Institute - Conference 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasitic Helminths: New Perspectives in Biology and Infection </t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>COVID-19 Immunology, Vaccines and Lessons for the Future</t>
   </si>
 </sst>
 </file>
@@ -516,20 +525,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -563,7 +572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -577,107 +586,107 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>2021</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>2021</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2019</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -686,12 +695,12 @@
         <v>2015</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -700,52 +709,52 @@
         <v>2015</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
+        <v>2015</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2015</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
         <v>2009</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>2019</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>2017</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -753,79 +762,107 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17">
-        <v>2018</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18">
-        <v>2015</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19">
-        <v>2014</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20">
-        <v>2011</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>2015</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21">
+        <v>2014</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>2011</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
         <v>2012</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>43</v>
       </c>
     </row>

--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1563D52E-6427-467F-9785-43588F1B3D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C8E2B-FEA2-41D7-9FF1-CB7E0207CCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="3825" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>with</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>RCSI, Dublin</t>
-  </si>
-  <si>
-    <t>KU Leuven, UZ Gasthuisberg Campus</t>
   </si>
   <si>
     <t>Invited talk</t>
@@ -174,9 +171,6 @@
     <t>TTMI, Dublin</t>
   </si>
   <si>
-    <t>Trinity Translational Medicine Institute - Conference 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parasitic Helminths: New Perspectives in Biology and Infection </t>
   </si>
   <si>
@@ -184,13 +178,40 @@
   </si>
   <si>
     <t>COVID-19 Immunology, Vaccines and Lessons for the Future</t>
+  </si>
+  <si>
+    <t>Invited Keynote talk</t>
+  </si>
+  <si>
+    <t>CRICK, London</t>
+  </si>
+  <si>
+    <t>Trinity Translational Medicine Institute - Conference 2022 (Invited talk)</t>
+  </si>
+  <si>
+    <t>KU Leuven, UZ Gasthuisberg Campus (Invited talk)</t>
+  </si>
+  <si>
+    <r>
+      <t>British Society for Immunology/London Immunology Group/Inflammation Affinity Group meeting: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mononuclear Phagocytes in Health and Disease. (Invited Keynote)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +238,19 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,13 +272,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
@@ -588,7 +623,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -597,35 +632,35 @@
         <v>2022</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,21 +707,21 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10">
         <v>2019</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -695,12 +730,12 @@
         <v>2015</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -709,12 +744,12 @@
         <v>2015</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -723,12 +758,12 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -737,12 +772,12 @@
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -751,77 +786,77 @@
         <v>2009</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
       <c r="C16">
         <v>2019</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
       <c r="C17">
         <v>2017</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
       <c r="C18">
         <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>2015</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>2014</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,27 +878,41 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>2011</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2012</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C8E2B-FEA2-41D7-9FF1-CB7E0207CCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF2B1A-A2F1-4E8A-A23E-3BA54FA2080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2040" windowWidth="27615" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>with</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Oral presentation</t>
   </si>
   <si>
-    <t>Irish Society of Immunology</t>
-  </si>
-  <si>
     <t xml:space="preserve">BSI Type 2 Immunology Meeting </t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>RCSI, Dublin</t>
-  </si>
-  <si>
-    <t>Invited talk</t>
   </si>
   <si>
     <t>KU Leuven</t>
@@ -174,15 +168,6 @@
     <t xml:space="preserve">Parasitic Helminths: New Perspectives in Biology and Infection </t>
   </si>
   <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>COVID-19 Immunology, Vaccines and Lessons for the Future</t>
-  </si>
-  <si>
-    <t>Invited Keynote talk</t>
-  </si>
-  <si>
     <t>CRICK, London</t>
   </si>
   <si>
@@ -192,26 +177,26 @@
     <t>KU Leuven, UZ Gasthuisberg Campus (Invited talk)</t>
   </si>
   <si>
-    <r>
-      <t>British Society for Immunology/London Immunology Group/Inflammation Affinity Group meeting: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mononuclear Phagocytes in Health and Disease. (Invited Keynote)</t>
-    </r>
+    <t>COVID-19 Immunology, Vaccines and Lessons for the Future (Invited talk)</t>
+  </si>
+  <si>
+    <t>Irish Society of Immunology (best presentation award)</t>
+  </si>
+  <si>
+    <t>Mononuclear Phagocytes in Health and Disease (Invited talk)</t>
+  </si>
+  <si>
+    <t>AI-driven Digital Content Technology (ADAPT) Collaboration Day (Invited talk)</t>
+  </si>
+  <si>
+    <t>TU Dublin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +224,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -560,17 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="139.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,133 +601,133 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
         <v>2021</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>2019</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>2019</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
+      <c r="A10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>2019</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
+      <c r="A12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -758,12 +736,12 @@
         <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -772,147 +750,161 @@
         <v>2015</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>2018</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>2017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>2015</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>2016</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C21">
-        <v>2014</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>2014</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
         <v>2011</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
         <v>2012</v>
       </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>2022</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
+      <c r="D25" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF2B1A-A2F1-4E8A-A23E-3BA54FA2080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00953B-4DC6-4BF4-83B7-63F7BAC8734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2040" windowWidth="27615" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1440" windowWidth="29520" windowHeight="18195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>with</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>TU Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish society of Parasitology </t>
+  </si>
+  <si>
+    <t>Tralee, Ireland</t>
+  </si>
+  <si>
+    <t>Building Engagments in Health Research</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,6 +916,34 @@
         <v>40</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>2023</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00953B-4DC6-4BF4-83B7-63F7BAC8734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4F559-2DF1-7840-BEFA-3FF79FB4235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1440" windowWidth="29520" windowHeight="18195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1440" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>with</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Building Engagments in Health Research</t>
+  </si>
+  <si>
+    <t>Belfast</t>
   </si>
 </sst>
 </file>
@@ -547,20 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="139.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="139.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -594,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -608,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -622,7 +625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -636,7 +639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -650,7 +653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -664,7 +667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -678,7 +681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -706,7 +709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -720,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -734,7 +737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -748,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -762,7 +765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -776,7 +779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -790,7 +793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -804,7 +807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -818,7 +821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -832,7 +835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -846,7 +849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -860,7 +863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -874,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -888,7 +891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -902,7 +905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -916,7 +919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -930,7 +933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -942,6 +945,31 @@
       </c>
       <c r="D27" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>2012</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4F559-2DF1-7840-BEFA-3FF79FB4235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643562E6-CC77-6C4D-8B6C-BA5DABCF8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1440" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>with</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Belfast</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>UK Kidney Week (Invited talk)</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,6 +968,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -970,6 +979,20 @@
       </c>
       <c r="D29" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>2024</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/presentations.xlsx
+++ b/data/presentations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643562E6-CC77-6C4D-8B6C-BA5DABCF8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69395D3A-F070-4B4E-A826-1BB6B275AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1440" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Tralee, Ireland</t>
   </si>
   <si>
-    <t>Building Engagments in Health Research</t>
-  </si>
-  <si>
     <t>Belfast</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>UK Kidney Week (Invited talk)</t>
+  </si>
+  <si>
+    <t>Building Engagements in Health Research</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,7 +941,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -978,12 +978,12 @@
         <v>2023</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -992,7 +992,7 @@
         <v>2024</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
